--- a/database/generate_data/quiz_table.xlsx
+++ b/database/generate_data/quiz_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD961C-1F79-4B37-9651-30F96CA4580F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392B7CA-4726-4BBB-AF8D-B436F7809DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>QUIZ_ID</t>
   </si>
@@ -91,21 +91,14 @@
   </si>
   <si>
     <t>JUNIOR_1</t>
-  </si>
-  <si>
-    <t>TIME_BEGIN</t>
-  </si>
-  <si>
-    <t>TIME_FINISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,13 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,15 +434,13 @@
     <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,26 +453,20 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>73001</v>
       </c>
@@ -496,26 +479,20 @@
       <c r="D2" s="1">
         <v>44927</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44941</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.99930555555555556</v>
+      <c r="E2" s="1">
+        <v>44941.000138888892</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>73002</v>
       </c>
@@ -528,26 +505,20 @@
       <c r="D3" s="1">
         <v>44927</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44941</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.99930555555555556</v>
+      <c r="E3" s="1">
+        <v>44941.508472222224</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>73003</v>
       </c>
@@ -560,26 +531,20 @@
       <c r="D4" s="1">
         <v>44941</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44946</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.999305555555556</v>
+      <c r="E4" s="1">
+        <v>44946.25708333333</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>73004</v>
       </c>
@@ -592,26 +557,20 @@
       <c r="D5" s="1">
         <v>44942</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44946</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.999305555555556</v>
+      <c r="E5" s="1">
+        <v>44946.229166666664</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>73005</v>
       </c>
@@ -624,26 +583,20 @@
       <c r="D6" s="1">
         <v>44950</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44958</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.999305555555556</v>
+      <c r="E6" s="1">
+        <v>44958.333333333336</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>73006</v>
       </c>
@@ -656,26 +609,20 @@
       <c r="D7" s="1">
         <v>44950</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44958</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.999305555555556</v>
+      <c r="E7" s="1">
+        <v>44958.375</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>73007</v>
       </c>
@@ -688,26 +635,20 @@
       <c r="D8" s="1">
         <v>44962</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44969</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.999305555555556</v>
+      <c r="E8" s="1">
+        <v>44969.416666666664</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>73008</v>
       </c>
@@ -720,22 +661,16 @@
       <c r="D9" s="1">
         <v>44970</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45052</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.999305555555556</v>
+      <c r="E9" s="1">
+        <v>45052.458333333336</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
     </row>

--- a/database/generate_data/quiz_table.xlsx
+++ b/database/generate_data/quiz_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392B7CA-4726-4BBB-AF8D-B436F7809DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BDEF1-5B5B-4EF7-AE3E-282AE467D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +486,7 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/database/generate_data/quiz_table.xlsx
+++ b/database/generate_data/quiz_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BDEF1-5B5B-4EF7-AE3E-282AE467D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3C4FA-7F26-48BE-9576-A40B0620F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>73001</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>73002</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>73003</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>73004</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>73005</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>73006</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>73007</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>73008</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>

--- a/database/generate_data/quiz_table.xlsx
+++ b/database/generate_data/quiz_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Flutter\backend\MiniProject_SE104\database\generate_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3C4FA-7F26-48BE-9576-A40B0620F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE9706-F2FB-4D4B-B3C8-34F9A0EAF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="852" windowWidth="16956" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,22 +425,22 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,9 +466,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -492,9 +492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -518,9 +518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -544,9 +544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -570,9 +570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -596,9 +596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -622,9 +622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -648,9 +648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>

--- a/database/generate_data/quiz_table.xlsx
+++ b/database/generate_data/quiz_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Flutter\backend\MiniProject_SE104\database\generate_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\generate_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE9706-F2FB-4D4B-B3C8-34F9A0EAF82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554DC790-CA64-4ACF-A9E1-FE08472D655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="852" windowWidth="16956" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>QUIZ_ID</t>
   </si>
@@ -69,28 +69,25 @@
     <t>IT006</t>
   </si>
   <si>
-    <t>BEGINER_2</t>
-  </si>
-  <si>
-    <t>BEGINER_1</t>
-  </si>
-  <si>
-    <t>BASIC_1</t>
-  </si>
-  <si>
-    <t>ADV_1</t>
-  </si>
-  <si>
-    <t>DB_1</t>
-  </si>
-  <si>
-    <t>DB_2</t>
-  </si>
-  <si>
-    <t>INTERN_1</t>
-  </si>
-  <si>
-    <t>JUNIOR_1</t>
+    <t>DIEMDANH</t>
+  </si>
+  <si>
+    <t>BEGINER</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>INTERN</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
   </si>
 </sst>
 </file>
@@ -422,25 +419,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,15 +463,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>44927</v>
@@ -483,7 +480,7 @@
         <v>44941.000138888892</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -492,15 +489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>44927</v>
@@ -512,21 +509,21 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>44941</v>
@@ -535,134 +532,134 @@
         <v>44946.25708333333</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>44942</v>
+        <v>44941</v>
       </c>
       <c r="E5" s="1">
-        <v>44946.229166666664</v>
+        <v>44946.25708333333</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44942</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44946.229166666664</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44950</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44958.333333333336</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>44950</v>
+        <v>44942</v>
       </c>
       <c r="E7" s="1">
-        <v>44958.375</v>
+        <v>44946.229166666664</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44950</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44958.333333333336</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44962</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44969.416666666664</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>44970</v>
+        <v>44950</v>
       </c>
       <c r="E9" s="1">
-        <v>45052.458333333336</v>
+        <v>44958.375</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -671,6 +668,110 @@
         <v>2</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44962</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44969.416666666664</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44962</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44969.416666666664</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44970</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45052.458333333336</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44970</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45052.458333333336</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
